--- a/数据整理/stocks/A股/创业板/300523-辰安科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300523-辰安科技.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>92.84</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>6.70</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3048</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>93.04</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>6.22</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0952</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -558,15 +588,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>92.71</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>6.36</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0572</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -581,7 +621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,15 +642,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -622,26 +672,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>260115</t>
+          <t>000586</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>景顺长城中小盘混合</t>
+          <t>景顺长城中小板创业板精选股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>93.97</t>
+          <t>3.14</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.44</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2349</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -650,26 +710,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000586</t>
+          <t>260115</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>景顺长城中小板创业板精选股票</t>
+          <t>景顺长城中小盘混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>93.79</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>7.48</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>4</v>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0729</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -688,15 +758,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>93.71</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>5.46</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0442</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>4</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300523-辰安科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300523-辰安科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -783,4 +784,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000586</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城中小板创业板精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2269</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>260115</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城中小盘混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0706</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002244</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城低碳科技主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300523-辰安科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300523-辰安科技.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -954,4 +955,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000586</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城中小板创业板精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2056</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>260115</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城中小盘混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0636</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002244</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城低碳科技主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300523-辰安科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300523-辰安科技.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1125,4 +1126,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300523-辰安科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300523-辰安科技.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1134,7 +1135,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1145,17 +1146,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1165,14 +1186,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.31</v>
+          <t>000586</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城中小板创业板精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2063</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1181,14 +1224,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>260115</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城中小盘混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0641</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.34</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="4">
@@ -1197,14 +1330,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="5">
@@ -1213,13 +1346,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.46</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300523-辰安科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300523-辰安科技.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1267,7 +1268,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1278,17 +1279,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1298,14 +1319,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.27</v>
+          <t>000586</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城中小板创业板精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2030</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1314,14 +1357,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.31</v>
+          <t>010706</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城景骊成长混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0720</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1330,14 +1395,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>260115</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城中小盘混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0629</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.34</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="5">
@@ -1346,14 +1517,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="6">
@@ -1362,13 +1533,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.46</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300523-辰安科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300523-辰安科技.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1438,7 +1439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1449,17 +1450,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1469,14 +1490,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.34</v>
+          <t>000586</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城中小板创业板精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2239</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1485,14 +1528,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.27</v>
+          <t>260115</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城中小盘混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0810</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1501,14 +1566,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.31</v>
+          <t>010706</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城景骊成长混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0730</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1517,14 +1604,136 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>001255</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长城改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>62.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.34</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="6">
@@ -1533,14 +1742,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="7">
@@ -1549,13 +1758,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>3</v>
       </c>
       <c r="D7" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.46</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300523-辰安科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300523-辰安科技.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,167 +457,145 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000586</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>景顺长城中小板创业板精选股票</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4.55</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.84</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.70</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3048</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>260115</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>景顺长城中小盘混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.04</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.22</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0952</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+      <c r="D3" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>002244</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>景顺长城低碳科技主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.71</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.36</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0572</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.46</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -627,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -648,7 +626,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -688,26 +666,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.79</t>
+          <t>94.27</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.48</t>
+          <t>9.33</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2349</t>
+          <t>0.2239</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -726,26 +704,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.97</t>
+          <t>94.26</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.44</t>
+          <t>7.64</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0729</t>
+          <t>0.0810</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -754,36 +732,74 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002244</t>
+          <t>010706</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>景顺长城低碳科技主题灵活配置混合</t>
+          <t>景顺长城景骊成长混合型证券投资基金</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.71</t>
+          <t>94.23</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.46</t>
+          <t>9.13</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0442</t>
+          <t>0.0730</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001255</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长城改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>62.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -818,7 +834,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -858,26 +874,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.92</t>
+          <t>94.15</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.32</t>
+          <t>8.39</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2269</t>
+          <t>0.2030</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -886,36 +902,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>260115</t>
+          <t>010706</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>景顺长城中小盘混合</t>
+          <t>景顺长城景骊成长混合型证券投资基金</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.17</t>
+          <t>93.50</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.65</t>
+          <t>6.37</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0706</t>
+          <t>0.0720</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -924,36 +940,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002244</t>
+          <t>260115</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>景顺长城低碳科技主题灵活配置混合</t>
+          <t>景顺长城中小盘混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.28</t>
+          <t>94.00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.03</t>
+          <t>6.55</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0428</t>
+          <t>0.0629</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -962,6 +978,138 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000586</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城中小板创业板精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2063</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>260115</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城中小盘混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0641</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1124,138 +1272,6 @@
       </c>
       <c r="H4" t="n">
         <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>000586</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>景顺长城中小板创业板精选股票</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.02</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.05</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2063</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>260115</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>景顺长城中小盘混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.79</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.21</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0641</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1290,7 +1306,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1330,26 +1346,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.15</t>
+          <t>92.92</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.39</t>
+          <t>7.32</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2030</t>
+          <t>0.2269</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1358,36 +1374,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010706</t>
+          <t>260115</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>景顺长城景骊成长混合型证券投资基金</t>
+          <t>景顺长城中小盘混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.50</t>
+          <t>91.17</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.37</t>
+          <t>5.65</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0720</t>
+          <t>0.0706</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1396,36 +1412,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>260115</t>
+          <t>002244</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>景顺长城中小盘混合</t>
+          <t>景顺长城低碳科技主题灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.00</t>
+          <t>94.28</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.55</t>
+          <t>6.03</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0629</t>
+          <t>0.0428</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1439,7 +1455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1460,7 +1476,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1500,26 +1516,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>3.14</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.27</t>
+          <t>93.79</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.33</t>
+          <t>7.48</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2239</t>
+          <t>0.2349</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1538,26 +1554,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.26</t>
+          <t>93.97</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.64</t>
+          <t>5.44</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0810</t>
+          <t>0.0729</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1566,74 +1582,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010706</t>
+          <t>002244</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>景顺长城景骊成长混合型证券投资基金</t>
+          <t>景顺长城低碳科技主题灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.23</t>
+          <t>93.71</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9.13</t>
+          <t>5.46</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0730</t>
+          <t>0.0442</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001255</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>长城改革红利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>62.01</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0398</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1647,144 +1625,166 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.42</v>
+          <t>000586</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城中小板创业板精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3048</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>260115</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城中小盘混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0952</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>3</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.34</v>
-      </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>002244</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城低碳科技主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0572</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>3</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.46</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300523-辰安科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300523-辰安科技.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.42</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.34</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.27</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.31</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.34</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>3</v>
       </c>
       <c r="D8" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
         <v>0.46</v>
       </c>
     </row>
@@ -600,6 +617,138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000586</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城中小创精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1739</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>260115</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城中小盘混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0558</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -807,7 +956,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -977,7 +1126,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1102,176 +1251,6 @@
       </c>
       <c r="H3" t="n">
         <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>000586</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>景顺长城中小板创业板精选股票</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3.01</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.89</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.83</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2056</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>260115</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>景顺长城中小盘混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.98</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.44</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0636</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>002244</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>景顺长城低碳科技主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.19</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.63</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0388</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1346,26 +1325,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.92</t>
+          <t>93.89</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.32</t>
+          <t>6.83</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2269</t>
+          <t>0.2056</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1384,26 +1363,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.17</t>
+          <t>92.98</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.65</t>
+          <t>5.44</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0706</t>
+          <t>0.0636</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1422,26 +1401,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.28</t>
+          <t>93.19</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.03</t>
+          <t>5.63</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0428</t>
+          <t>0.0388</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1516,22 +1495,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.79</t>
+          <t>92.92</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.48</t>
+          <t>7.32</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2349</t>
+          <t>0.2269</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1554,26 +1533,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.97</t>
+          <t>91.17</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.44</t>
+          <t>5.65</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0729</t>
+          <t>0.0706</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1592,26 +1571,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.71</t>
+          <t>94.28</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.46</t>
+          <t>6.03</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0442</t>
+          <t>0.0428</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1620,6 +1599,176 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000586</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城中小板创业板精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2349</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>260115</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城中小盘混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0729</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002244</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城低碳科技主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0442</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300523-辰安科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300523-辰安科技.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>0.23</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.42</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.34</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.27</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.31</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>0.34</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>3</v>
       </c>
       <c r="D9" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>3</v>
+      </c>
+      <c r="D10" t="n">
         <v>0.46</v>
       </c>
     </row>
@@ -616,7 +633,537 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000586</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城中小板创业板精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3048</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>260115</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城中小盘混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0952</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002244</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城低碳科技主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0572</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>013442</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强E</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1333</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006165</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1008</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006166</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010404</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博道盛利6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>41.08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014692</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中加量化研选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>74.39</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009514</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>创金合信同顺创业板精选股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009513</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>创金合信同顺创业板精选股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014691</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中加量化研选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>74.39</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -748,7 +1295,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -956,7 +1503,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1126,7 +1673,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1251,176 +1798,6 @@
       </c>
       <c r="H3" t="n">
         <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>000586</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>景顺长城中小板创业板精选股票</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3.01</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.89</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.83</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2056</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>260115</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>景顺长城中小盘混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.98</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.44</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0636</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>002244</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>景顺长城低碳科技主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.19</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.63</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0388</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1495,26 +1872,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.92</t>
+          <t>93.89</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.32</t>
+          <t>6.83</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2269</t>
+          <t>0.2056</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1533,26 +1910,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.17</t>
+          <t>92.98</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.65</t>
+          <t>5.44</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0706</t>
+          <t>0.0636</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1571,26 +1948,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.28</t>
+          <t>93.19</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.03</t>
+          <t>5.63</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0428</t>
+          <t>0.0388</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1665,22 +2042,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.79</t>
+          <t>92.92</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.48</t>
+          <t>7.32</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2349</t>
+          <t>0.2269</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1703,26 +2080,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.97</t>
+          <t>91.17</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.44</t>
+          <t>5.65</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0729</t>
+          <t>0.0706</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1741,26 +2118,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.71</t>
+          <t>94.28</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.46</t>
+          <t>6.03</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0442</t>
+          <t>0.0428</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1776,51 +2153,51 @@
   </sheetPr>
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>基金金额</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -1835,30 +2212,30 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>3.14</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.84</t>
+          <t>93.79</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.70</t>
+          <t>7.48</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3048</t>
+          <t>0.2349</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -1873,30 +2250,30 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.04</t>
+          <t>93.97</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.22</t>
+          <t>5.44</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0952</t>
+          <t>0.0729</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -1911,29 +2288,29 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.71</t>
+          <t>93.71</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.36</t>
+          <t>5.46</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0572</t>
+          <t>0.0442</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>